--- a/biology/Botanique/Dilleniaceae/Dilleniaceae.xlsx
+++ b/biology/Botanique/Dilleniaceae/Dilleniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dilleniaceae sont une famille de plantes dicotylédones qui comprend 400 espèces réparties en 10 à 11 genres.
 Ce sont des arbres, des arbustes, des lianes et quelques plantes herbacées, certains adaptés aux zones arides, des régions tempérées-chaudes, subtropicales et tropicales.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre-type Dillenia nommé par Linné en hommage au botaniste britannique d'origine allemande Johann Jacob Dillenius (1684–1747), qui accueillit Linné à Oxford en 1736[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre-type Dillenia nommé par Linné en hommage au botaniste britannique d'origine allemande Johann Jacob Dillenius (1684–1747), qui accueillit Linné à Oxford en 1736.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification phylogénétique APG II (2003)[2] cette famille était directement rattachée au noyau des Dicotylédones vraies.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG II (2003) cette famille était directement rattachée au noyau des Dicotylédones vraies.
 Le Angiosperm Phylogeny Website les situe dans l'ordre des Dilleniales.
-En classification phylogénétique APG III (2009)[3] cette famille est toujours rattachée au noyau des Dicotylédones vraies.
-En classification phylogénétique APG IV (2016)[4] l'ordre des Dilleniales est de nouveau admis.
+En classification phylogénétique APG III (2009) cette famille est toujours rattachée au noyau des Dicotylédones vraies.
+En classification phylogénétique APG IV (2016) l'ordre des Dilleniales est de nouveau admis.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (17 janvier 2017)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (17 janvier 2017) :
 Acrotrema
 Curatella
 Davilla
@@ -591,7 +609,7 @@
 Pinzona
 Schumacheria
 Tetracera
-Selon Angiosperm Phylogeny Website                        (17 janvier 2017)[6] :
+Selon Angiosperm Phylogeny Website                        (17 janvier 2017) :
 Acrotrema Jack
 Curatella Loefl.
 Davilla Vand.
@@ -604,7 +622,7 @@
 Pinzona Mart. &amp; Zucc.
 Schumacheria Vahl
 Tetracera L.
-DELTA Angio           (17 janvier 2017)[7]
+DELTA Angio           (17 janvier 2017)
 Acrotrema Jack
 Curatella Loefl.
 Davilla Vand.
@@ -617,7 +635,7 @@
 Pinzona Mart. &amp; Zucc.
 Schumacheria Vahl
 Tetracera L.
-Selon ITIS      (17 janvier 2017)[8] :
+Selon ITIS      (17 janvier 2017) :
 Dillenia  L.
 Doliocarpus  Roland.
 Pinzona  Mart. &amp; Zucc.</t>
@@ -648,9 +666,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (27 avr. 2010)[9] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (27 avr. 2010) :
 genre Acrotrema
 Acrotrema costatum
 genre Curatella
